--- a/DATA/IsoData/GRSMIsoData.xlsx
+++ b/DATA/IsoData/GRSMIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">17a4a732-92af-49ac-a490-b969c3baf76d</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd7a7721-8436-438d-9d7f-055376dfd608</t>
   </si>
   <si>
     <t xml:space="preserve">GRSM.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170136Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00b78bb7-8f68-4678-a0aa-2affbbd9d374</t>
+    <t xml:space="preserve">20210112T151321Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e17e0b1-4439-4a94-80d3-87279a47c3c5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20190619.1050</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000080965</t>
   </si>
   <si>
-    <t xml:space="preserve">d4787e0a-1bf3-45fd-b8e2-32b079044b0d</t>
+    <t xml:space="preserve">38dda64f-e80c-4173-89b9-9c5f8d510705</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20190702.1251</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000081102</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173139Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322c0f79-8db7-41cc-b2e7-2e6a692b2110</t>
+    <t xml:space="preserve">20210112T151317Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f96341d0-f873-482e-b98f-2e40eecee1c8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20190716.1243</t>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">A00000081194</t>
   </si>
   <si>
-    <t xml:space="preserve">407910a8-999b-40d9-90b6-09f3568aea35</t>
+    <t xml:space="preserve">b2b888bc-e1cd-4e45-acff-384a7abd4896</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20190730.1042</t>
@@ -140,7 +146,7 @@
     <t xml:space="preserve">A00000081133</t>
   </si>
   <si>
-    <t xml:space="preserve">c4e9998e-e5c8-4061-9143-927282c72199</t>
+    <t xml:space="preserve">6343cb35-9157-4356-9120-0fe068b1c73d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20190814.1026</t>
@@ -152,10 +158,10 @@
     <t xml:space="preserve">A00000081468</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165351Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96dac336-40f7-4d1f-82cb-1eef6649a0d1</t>
+    <t xml:space="preserve">20210112T150745Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b45b8f77-2518-4363-bcff-77550d5f032f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20190829.1257</t>
@@ -167,7 +173,7 @@
     <t xml:space="preserve">A00000081447</t>
   </si>
   <si>
-    <t xml:space="preserve">8f2f9cc1-749a-43fe-8413-2a7053e311e2</t>
+    <t xml:space="preserve">0a45df80-6281-483a-b9fa-a9c6dd9a65f8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20190924.1200</t>
@@ -179,10 +185,10 @@
     <t xml:space="preserve">A00000141915</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165607Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0bf9dffc-f661-403f-851c-84c345f42bf8</t>
+    <t xml:space="preserve">20210112T150837Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73525016-560e-444c-9f16-3435f502bb13</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20191009.1216</t>
@@ -194,10 +200,10 @@
     <t xml:space="preserve">A00000142558</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165731Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">433ebc8c-36b3-4c45-96d5-25d8afe1ef73</t>
+    <t xml:space="preserve">20210112T150521Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3aacadd2-919e-4eba-90dd-6c882750fc72</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20191024.1058</t>
@@ -209,7 +215,7 @@
     <t xml:space="preserve">A00000081462</t>
   </si>
   <si>
-    <t xml:space="preserve">0b7f9ed8-bde0-4406-8eac-9bac5481b24e</t>
+    <t xml:space="preserve">37c6859e-1fc6-4f2e-aae2-f9c37b87121b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20191105.1120</t>
@@ -221,10 +227,10 @@
     <t xml:space="preserve">A00000081429</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164314Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f552db44-bfd5-4488-9d0b-a1b13c152ac5</t>
+    <t xml:space="preserve">20210112T151002Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e48afefc-d90d-4202-84de-e86aa24c99cb</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.GRSM.20191120.1007</t>
@@ -234,6 +240,120 @@
   </si>
   <si>
     <t xml:space="preserve">A00000081434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17893aee-a3d9-4c58-b64e-bc9648ec6d70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20191219.1056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20191219.1056.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000081438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T151421Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3fbba99a-01c5-4a11-9f07-e8961f686d8d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200102.1258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200102.1258.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000081436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145235Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc60e121-f8b0-4712-8ace-0576ac68dfe6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200113.1106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200113.1106.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a0ddce16-7824-43d6-8866-014e3ee2cfa6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200128.1138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200128.1138.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">734ec0de-69e9-4012-b149-4514e860f570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200217.1104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200217.1104.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T172448Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8a42efdc-8f9d-41e1-be6c-837e792a43cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200226.1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200226.1035.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000141895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68a0078b-42ca-4b56-b83c-3979551d9cc6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200311.1559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200311.1559.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000143769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T172613Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62955378-9034-42ce-8693-d670dd92862f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200715.1230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.GRSM.20200715.1230.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000213646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T175653Z</t>
   </si>
 </sst>
 </file>
@@ -571,7 +691,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -625,23 +745,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43606.6916666667</v>
@@ -662,35 +785,38 @@
         <v>0.413</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43643.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43619.6194444444</v>
@@ -711,35 +837,38 @@
         <v>0.163</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43635.6256944444</v>
@@ -760,35 +889,38 @@
         <v>0.156</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43648.7020833333</v>
@@ -809,35 +941,38 @@
         <v>0.258</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43662.7083333333</v>
@@ -858,35 +993,38 @@
         <v>0.228</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43676.6145833333</v>
@@ -907,35 +1045,38 @@
         <v>0.101</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43691.6041666667</v>
@@ -956,35 +1097,38 @@
         <v>0.309</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43719.6868055556</v>
@@ -1005,35 +1149,38 @@
         <v>0.086</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43732.6763888889</v>
@@ -1054,35 +1201,38 @@
         <v>0.209</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43747.6819444444</v>
@@ -1103,35 +1253,38 @@
         <v>0.042</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43762.6319444444</v>
@@ -1152,35 +1305,38 @@
         <v>0.063</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43774.6979166667</v>
@@ -1201,17 +1357,436 @@
         <v>0.134</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>43803.7069444444</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>43818.6638888889</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-8.607</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-55.364</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>43818.6715277778</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>43832.7486111111</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-10.99</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-86.221</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>43832.7576388889</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>43843.6708333333</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-6.875</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-47.454</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>43843.6791666667</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>43858.6930555556</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-6.687</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-43.376</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>43858.7131944444</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>43878.6694444444</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-7.776</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-50.246</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>43878.6777777778</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>43887.6493055556</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-9.127</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-64.345</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>99</v>
+      </c>
+      <c r="R19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>43887.6597222222</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>43901.8326388889</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-6.885</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-38.023</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>44012.5798611111</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>44027.6875</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-3.989</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-22.68</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>44095.75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
